--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2376.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2376.xlsx
@@ -354,10 +354,10 @@
         <v>1.513073691931281</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.16986111865686</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2376.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2376.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.888968517811795</v>
+        <v>0.9546840190887451</v>
       </c>
       <c r="B1">
-        <v>1.513073691931281</v>
+        <v>1.864270687103271</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.727403163909912</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>2.576142549514771</v>
       </c>
       <c r="E1">
-        <v>1.16986111865686</v>
+        <v>0.46656534075737</v>
       </c>
     </row>
   </sheetData>
